--- a/data/ingredient_ratios.xlsx
+++ b/data/ingredient_ratios.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\OneDrive\Documents\AppsynergiesFiles\Catering Management System POC\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\OneDrive\Documents\Project\catering-ai-poc\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7B27B6-C958-4822-99A3-8CC7FB7C9B53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E7912E-52BB-406C-981F-7BBFD643CEE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7290" xr2:uid="{D7A1CBAA-11B3-4CCC-910F-2B6DA5AA20D7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="32">
   <si>
     <t>package</t>
   </si>
@@ -100,6 +100,27 @@
   </si>
   <si>
     <t>Pistachio Crumbs</t>
+  </si>
+  <si>
+    <t>Veggie Pizza</t>
+  </si>
+  <si>
+    <t>Capsicum</t>
+  </si>
+  <si>
+    <t>Onion</t>
+  </si>
+  <si>
+    <t>Mushroom</t>
+  </si>
+  <si>
+    <t>Black Olives</t>
+  </si>
+  <si>
+    <t>Oregano &amp; Herbs</t>
+  </si>
+  <si>
+    <t>Olive Oil</t>
   </si>
 </sst>
 </file>
@@ -471,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74165439-7DE0-434B-AE9E-781A42EFC41B}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,6 +795,159 @@
         <v>5</v>
       </c>
     </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="1">
+        <v>150</v>
+      </c>
+      <c r="E18" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1">
+        <v>40</v>
+      </c>
+      <c r="E19" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="1">
+        <v>60</v>
+      </c>
+      <c r="E20" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="1">
+        <v>40</v>
+      </c>
+      <c r="E21" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="1">
+        <v>30</v>
+      </c>
+      <c r="E22" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="1">
+        <v>35</v>
+      </c>
+      <c r="E23" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="1">
+        <v>15</v>
+      </c>
+      <c r="E24" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="1">
+        <v>5</v>
+      </c>
+      <c r="E26" s="1">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
